--- a/doc/SDS011_Humidty_Correction.xlsx
+++ b/doc/SDS011_Humidty_Correction.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aad9d62b2f513e77/Documents/Arduino/_Sensors/SDS011/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aad9d62b2f513e77/Documents/GitHub/Nova SDS011/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{99DCE885-FBE4-463A-A034-36B2EA7B9CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{817B46C7-459A-477C-BFAB-1600BACBF9AA}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="8_{99DCE885-FBE4-463A-A034-36B2EA7B9CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{435BC925-8638-4BCE-B5CD-BA13BED382DC}"/>
   <bookViews>
-    <workbookView xWindow="-66" yWindow="-66" windowWidth="20868" windowHeight="12372" xr2:uid="{23DE37B7-6803-4BAF-85A2-95127587C7E1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{23DE37B7-6803-4BAF-85A2-95127587C7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Luftfeuchte Korrektur · opendata-stuttgart/meta Wiki</t>
   </si>
@@ -132,7 +133,22 @@
     <t>PM10[13]</t>
   </si>
   <si>
-    <t>h</t>
+    <t>Gpm2.5</t>
+  </si>
+  <si>
+    <t>Gpm10</t>
+  </si>
+  <si>
+    <t>%H</t>
+  </si>
+  <si>
+    <t>Gpm2.5AMS</t>
+  </si>
+  <si>
+    <t>Gpm2.5AME</t>
+  </si>
+  <si>
+    <t>Gpm2.5VEN</t>
   </si>
 </sst>
 </file>
@@ -253,15 +269,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -283,6 +299,1463 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.042</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.952</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6560000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9B9-4EAF-BAB1-502DDFF613D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.234</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.498</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.748</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1929999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9B9-4EAF-BAB1-502DDFF613D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.75187896172307767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77850849765529406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80876142993598876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84357446985795326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8842690743601439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93278427362504845</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99211023793731168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0671671047285354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.166800038870035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3090973073170618</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5396018815791332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0315168621845028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8673050762652372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F9B9-4EAF-BAB1-502DDFF613D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.69380461018973694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72025496793726429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75038668133057207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78516483019184224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82595506873736657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87476814549524917</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93471686663182529</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.010946132721362</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1127544015853899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2592819475890853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4991400926209268</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0196918692044572</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0349877352514358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F9B9-4EAF-BAB1-502DDFF613D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1778980304"/>
+        <c:axId val="1778984144"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$7:$H$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.60000000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.65000000000000013</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.70000000000000018</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.75000000000000022</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.80000000000000027</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.85000000000000031</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.90000000000000036</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.9500000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$7:$J$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.58499999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.627</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.67700000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.73799999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.81599999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.91800000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.0620000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.28</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.6659999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.6139999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7.4420000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-F9B9-4EAF-BAB1-502DDFF613D8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1778980304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778984144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1778984144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1778980304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>92868</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0564852A-7A19-2C1C-EF93-D4C56AF9B670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,16 +2077,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F78584-26BA-4910-B167-DFCECC2F6DE9}">
   <dimension ref="B2:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,77 +2094,75 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="14.65" x14ac:dyDescent="0.5">
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>7</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K4" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="8">
         <v>3.4</v>
       </c>
-      <c r="K4" s="7">
-        <f>(L4+J4)/2</f>
-        <v>3.65</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>3.9</v>
-      </c>
-      <c r="M4" s="7">
-        <v>4.5599999999999996</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="8">
         <v>0.38</v>
       </c>
-      <c r="J5" s="8">
+      <c r="L5" s="8">
         <v>0.4</v>
       </c>
-      <c r="K5" s="7">
-        <f>(L5+J5)/2</f>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>0.43</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.65</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
@@ -706,531 +2177,552 @@
         <v>14</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>0.38</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>0.4</v>
       </c>
       <c r="I7" s="13">
-        <f>I$4*(100-$H7*100)^(-I$5)</f>
-        <v>0.48532242713466539</v>
+        <f>ROUND((I$4*(1-$H7))^(-I$5),3)</f>
+        <v>0.74099999999999999</v>
       </c>
       <c r="J7" s="13">
-        <f t="shared" ref="J7:M7" si="0">(J$4*(1-$H7))^(-J$5)</f>
+        <f>ROUND((J$4*(1-$H7))^(-J$5),3)</f>
+        <v>0.52</v>
+      </c>
+      <c r="K7" s="12">
+        <f>ROUND((K$4*(1-$H7))^(-K$5),3)</f>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" ref="L7:M19" si="0">(L$4*(1-$H7))^(-L$5)</f>
         <v>0.75187896172307767</v>
       </c>
-      <c r="K7" s="14">
-        <f>ROUND((K$4*(1-$H7))^(-K$5),3)</f>
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="L7" s="13">
+      <c r="M7" s="12">
         <f t="shared" si="0"/>
         <v>0.69380461018973694</v>
       </c>
-      <c r="M7" s="14">
-        <f>ROUND((M$4*(1-$H7))^(-M$5),3)</f>
-        <v>0.52</v>
-      </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <f>1+(0.488*($H7^8.6))</f>
         <v>1.0001845592205774</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="12">
         <f>1+(0.816*($H7^5.8))</f>
         <v>1.0040145614361757</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>3.4</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0.4</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="16">
+        <f>H7+0.05</f>
         <v>0.45</v>
       </c>
       <c r="I8" s="13">
-        <f>I$4*((100-($H8*100))^(-I$5))</f>
-        <v>0.50163752219198576</v>
+        <f>ROUND((I$4*(1-$H8))^(-I$5),3)</f>
+        <v>0.76600000000000001</v>
       </c>
       <c r="J8" s="13">
-        <f t="shared" ref="J8:M19" si="1">(J$4*(1-$H8))^(-J$5)</f>
+        <f>ROUND((J$4*(1-$H8))^(-J$5),3)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K8" s="12">
+        <f>ROUND((K$4*(1-$H8))^(-K$5),3)</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
         <v>0.77850849765529406</v>
       </c>
-      <c r="K8" s="14">
-        <f t="shared" ref="K8:M19" si="2">ROUND((K$4*(1-$H8))^(-K$5),3)</f>
-        <v>0.749</v>
-      </c>
-      <c r="L8" s="13">
-        <f t="shared" si="1"/>
+      <c r="M8" s="12">
+        <f t="shared" si="0"/>
         <v>0.72025496793726429</v>
       </c>
-      <c r="M8" s="14">
-        <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N8" s="13">
-        <f t="shared" ref="N8:N19" si="3">1+(0.488*($H8^8.6))</f>
+      <c r="N8" s="12">
+        <f t="shared" ref="N8:N19" si="1">1+(0.488*($H8^8.6))</f>
         <v>1.0005082149547553</v>
       </c>
-      <c r="O8" s="13">
-        <f t="shared" ref="O8:O19" si="4">1+(0.816*($H8^5.8))</f>
+      <c r="O8" s="12">
+        <f t="shared" ref="O8:O19" si="2">1+(0.816*($H8^5.8))</f>
         <v>1.0079491874579929</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>3.9</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>0.43</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
+        <f t="shared" ref="H9:H18" si="3">H8+0.05</f>
         <v>0.5</v>
       </c>
       <c r="I9" s="13">
-        <f t="shared" ref="I9:I19" si="5">I$4*((100-($H9*100))^(-I$5))</f>
-        <v>0.52013877962084565</v>
+        <f>ROUND((I$4*(1-$H9))^(-I$5),3)</f>
+        <v>0.79500000000000004</v>
       </c>
       <c r="J9" s="13">
+        <f>ROUND((J$4*(1-$H9))^(-J$5),3)</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="K9" s="12">
+        <f>ROUND((K$4*(1-$H9))^(-K$5),3)</f>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.80876142993598876</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.75038668133057207</v>
+      </c>
+      <c r="N9" s="12">
         <f t="shared" si="1"/>
-        <v>0.80876142993598876</v>
-      </c>
-      <c r="K9" s="14">
+        <v>1.0012576559774553</v>
+      </c>
+      <c r="O9" s="12">
         <f t="shared" si="2"/>
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="L9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.75038668133057207</v>
-      </c>
-      <c r="M9" s="14">
-        <f t="shared" si="2"/>
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="N9" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0012576559774553</v>
-      </c>
-      <c r="O9" s="13">
-        <f t="shared" si="4"/>
         <v>1.0146459040262121</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="10">
         <v>3</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
+        <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I10" s="13">
-        <f t="shared" si="5"/>
-        <v>0.54138607462629684</v>
+        <f>ROUND((I$4*(1-$H10))^(-I$5),3)</f>
+        <v>0.82799999999999996</v>
       </c>
       <c r="J10" s="13">
+        <f>ROUND((J$4*(1-$H10))^(-J$5),3)</f>
+        <v>0.627</v>
+      </c>
+      <c r="K10" s="12">
+        <f>ROUND((K$4*(1-$H10))^(-K$5),3)</f>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.84357446985795326</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.78516483019184224</v>
+      </c>
+      <c r="N10" s="12">
         <f t="shared" si="1"/>
-        <v>0.84357446985795326</v>
-      </c>
-      <c r="K10" s="14">
+        <v>1.0028545585262212</v>
+      </c>
+      <c r="O10" s="12">
         <f t="shared" si="2"/>
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="L10" s="13">
-        <f t="shared" si="1"/>
-        <v>0.78516483019184224</v>
-      </c>
-      <c r="M10" s="14">
-        <f t="shared" si="2"/>
-        <v>0.627</v>
-      </c>
-      <c r="N10" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0028545585262212</v>
-      </c>
-      <c r="O10" s="13">
-        <f t="shared" si="4"/>
         <v>1.0254562107507419</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>0.65</v>
       </c>
       <c r="G11" s="10">
         <v>4</v>
       </c>
-      <c r="H11" s="12">
-        <v>0.6</v>
+      <c r="H11" s="16">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I11" s="13">
-        <f t="shared" si="5"/>
-        <v>0.56616763505108669</v>
+        <f>ROUND((I$4*(1-$H11))^(-I$5),3)</f>
+        <v>0.86699999999999999</v>
       </c>
       <c r="J11" s="13">
+        <f>ROUND((J$4*(1-$H11))^(-J$5),3)</f>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="K11" s="12">
+        <f>ROUND((K$4*(1-$H11))^(-K$5),3)</f>
+        <v>1.032</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8842690743601439</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.82595506873736657</v>
+      </c>
+      <c r="N11" s="12">
         <f t="shared" si="1"/>
-        <v>0.88426907436014368</v>
-      </c>
-      <c r="K11" s="14">
+        <v>1.0060328228858282</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="2"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="1"/>
-        <v>0.82595506873736635</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="2"/>
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="N11" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0060328228858282</v>
-      </c>
-      <c r="O11" s="13">
-        <f t="shared" si="4"/>
         <v>1.0421664860934432</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G12" s="10">
         <v>5</v>
       </c>
-      <c r="H12" s="12">
-        <v>0.65</v>
+      <c r="H12" s="16">
+        <f t="shared" si="3"/>
+        <v>0.65000000000000013</v>
       </c>
       <c r="I12" s="13">
-        <f t="shared" si="5"/>
-        <v>0.59563742733469593</v>
+        <f>ROUND((I$4*(1-$H12))^(-I$5),3)</f>
+        <v>0.91400000000000003</v>
       </c>
       <c r="J12" s="13">
+        <f>ROUND((J$4*(1-$H12))^(-J$5),3)</f>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K12" s="12">
+        <f>ROUND((K$4*(1-$H12))^(-K$5),3)</f>
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.93278427362504845</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.87476814549524917</v>
+      </c>
+      <c r="N12" s="12">
         <f t="shared" si="1"/>
-        <v>0.93278427362504834</v>
-      </c>
-      <c r="K12" s="14">
+        <v>1.0120081108718995</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="2"/>
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="L12" s="13">
-        <f t="shared" si="1"/>
-        <v>0.87476814549524895</v>
-      </c>
-      <c r="M12" s="14">
-        <f t="shared" si="2"/>
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="N12" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0120081108718995</v>
-      </c>
-      <c r="O12" s="13">
-        <f t="shared" si="4"/>
-        <v>1.0670791618186923</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+        <v>1.0670791618186926</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G13" s="10">
         <v>6</v>
       </c>
-      <c r="H13" s="12">
-        <v>0.7</v>
+      <c r="H13" s="16">
+        <f t="shared" si="3"/>
+        <v>0.70000000000000018</v>
       </c>
       <c r="I13" s="13">
-        <f t="shared" si="5"/>
-        <v>0.63157038781500807</v>
+        <f>ROUND((I$4*(1-$H13))^(-I$5),3)</f>
+        <v>0.97</v>
       </c>
       <c r="J13" s="13">
+        <f>ROUND((J$4*(1-$H13))^(-J$5),3)</f>
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K13" s="12">
+        <f>ROUND((K$4*(1-$H13))^(-K$5),3)</f>
+        <v>1.151</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.99211023793731168</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.93471686663182529</v>
+      </c>
+      <c r="N13" s="12">
         <f t="shared" si="1"/>
-        <v>0.99211023793731123</v>
-      </c>
-      <c r="K13" s="14">
+        <v>1.022712396755064</v>
+      </c>
+      <c r="O13" s="12">
         <f t="shared" si="2"/>
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="L13" s="13">
-        <f t="shared" si="1"/>
-        <v>0.93471686663182496</v>
-      </c>
-      <c r="M13" s="14">
-        <f t="shared" si="2"/>
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="N13" s="13">
-        <f t="shared" si="3"/>
-        <v>1.022712396755064</v>
-      </c>
-      <c r="O13" s="13">
-        <f t="shared" si="4"/>
-        <v>1.103100029805858</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+        <v>1.1031000298058582</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G14" s="10">
         <v>7</v>
       </c>
-      <c r="H14" s="12">
-        <v>0.75</v>
+      <c r="H14" s="16">
+        <f t="shared" si="3"/>
+        <v>0.75000000000000022</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="5"/>
-        <v>0.67687836455909423</v>
+        <f>ROUND((I$4*(1-$H14))^(-I$5),3)</f>
+        <v>1.042</v>
       </c>
       <c r="J14" s="13">
+        <f>ROUND((J$4*(1-$H14))^(-J$5),3)</f>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K14" s="12">
+        <f>ROUND((K$4*(1-$H14))^(-K$5),3)</f>
+        <v>1.234</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0671671047285354</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="0"/>
+        <v>1.010946132721362</v>
+      </c>
+      <c r="N14" s="12">
         <f t="shared" si="1"/>
-        <v>1.0671671047285349</v>
-      </c>
-      <c r="K14" s="14">
+        <v>1.0411099252562523</v>
+      </c>
+      <c r="O14" s="12">
         <f t="shared" si="2"/>
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="L14" s="13">
-        <f t="shared" si="1"/>
-        <v>1.0109461327213616</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="2"/>
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="N14" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0411099252562521</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" si="4"/>
-        <v>1.1538315749466945</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+        <v>1.1538315749466947</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G15" s="10">
         <v>8</v>
       </c>
-      <c r="H15" s="12">
-        <v>0.8</v>
+      <c r="H15" s="16">
+        <f t="shared" si="3"/>
+        <v>0.80000000000000027</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="5"/>
-        <v>0.73677764068855278</v>
+        <f>ROUND((I$4*(1-$H15))^(-I$5),3)</f>
+        <v>1.137</v>
       </c>
       <c r="J15" s="13">
+        <f>ROUND((J$4*(1-$H15))^(-J$5),3)</f>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="K15" s="12">
+        <f>ROUND((K$4*(1-$H15))^(-K$5),3)</f>
+        <v>1.343</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="0"/>
+        <v>1.166800038870035</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="0"/>
+        <v>1.1127544015853899</v>
+      </c>
+      <c r="N15" s="12">
         <f t="shared" si="1"/>
-        <v>1.1668000388700346</v>
-      </c>
-      <c r="K15" s="14">
+        <v>1.0716133038416651</v>
+      </c>
+      <c r="O15" s="12">
         <f t="shared" si="2"/>
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="1"/>
-        <v>1.1127544015853894</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="2"/>
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="3"/>
-        <v>1.0716133038416651</v>
-      </c>
-      <c r="O15" s="13">
-        <f t="shared" si="4"/>
-        <v>1.2236722380575813</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+        <v>1.2236722380575815</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <v>9</v>
       </c>
-      <c r="H16" s="12">
-        <v>0.85</v>
+      <c r="H16" s="16">
+        <f t="shared" si="3"/>
+        <v>0.85000000000000031</v>
       </c>
       <c r="I16" s="13">
-        <f t="shared" si="5"/>
-        <v>0.82188898032136404</v>
+        <f>ROUND((I$4*(1-$H16))^(-I$5),3)</f>
+        <v>1.272</v>
       </c>
       <c r="J16" s="13">
+        <f>ROUND((J$4*(1-$H16))^(-J$5),3)</f>
+        <v>1.28</v>
+      </c>
+      <c r="K16" s="12">
+        <f>ROUND((K$4*(1-$H16))^(-K$5),3)</f>
+        <v>1.498</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3090973073170618</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2592819475890853</v>
+      </c>
+      <c r="N16" s="12">
         <f t="shared" si="1"/>
-        <v>1.3090973073170606</v>
-      </c>
-      <c r="K16" s="14">
+        <v>1.1206209051539022</v>
+      </c>
+      <c r="O16" s="12">
         <f t="shared" si="2"/>
-        <v>1.284</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="1"/>
-        <v>1.259281947589084</v>
-      </c>
-      <c r="M16" s="14">
-        <f t="shared" si="2"/>
-        <v>1.28</v>
-      </c>
-      <c r="N16" s="13">
-        <f t="shared" si="3"/>
-        <v>1.120620905153902</v>
-      </c>
-      <c r="O16" s="13">
-        <f t="shared" si="4"/>
-        <v>1.3179215212742086</v>
-      </c>
-    </row>
-    <row r="17" spans="6:20" x14ac:dyDescent="0.35">
+        <v>1.3179215212742093</v>
+      </c>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.45">
       <c r="G17" s="10">
         <v>10</v>
       </c>
-      <c r="H17" s="12">
-        <v>0.9</v>
+      <c r="H17" s="16">
+        <f t="shared" si="3"/>
+        <v>0.90000000000000036</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" si="5"/>
-        <v>0.95879958198177129</v>
+        <f>ROUND((I$4*(1-$H17))^(-I$5),3)</f>
+        <v>1.49</v>
       </c>
       <c r="J17" s="13">
+        <f>ROUND((J$4*(1-$H17))^(-J$5),3)</f>
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="K17" s="12">
+        <f>ROUND((K$4*(1-$H17))^(-K$5),3)</f>
+        <v>1.748</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5396018815791332</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="0"/>
+        <v>1.4991400926209268</v>
+      </c>
+      <c r="N17" s="12">
         <f t="shared" si="1"/>
-        <v>1.539601881579131</v>
-      </c>
-      <c r="K17" s="14">
+        <v>1.1971993155253733</v>
+      </c>
+      <c r="O17" s="12">
         <f t="shared" si="2"/>
-        <v>1.5189999999999999</v>
-      </c>
-      <c r="L17" s="13">
-        <f t="shared" si="1"/>
-        <v>1.4991400926209248</v>
-      </c>
-      <c r="M17" s="14">
-        <f t="shared" si="2"/>
-        <v>1.6659999999999999</v>
-      </c>
-      <c r="N17" s="13">
-        <f t="shared" si="3"/>
-        <v>1.1971993155253726</v>
-      </c>
-      <c r="O17" s="13">
-        <f t="shared" si="4"/>
-        <v>1.442890855635345</v>
-      </c>
-    </row>
-    <row r="18" spans="6:20" x14ac:dyDescent="0.35">
+        <v>1.4428908556353461</v>
+      </c>
+    </row>
+    <row r="18" spans="6:20" x14ac:dyDescent="0.45">
       <c r="G18" s="10">
         <v>11</v>
       </c>
-      <c r="H18" s="12">
-        <v>0.95</v>
+      <c r="H18" s="16">
+        <f t="shared" si="3"/>
+        <v>0.9500000000000004</v>
       </c>
       <c r="I18" s="13">
-        <f t="shared" si="5"/>
-        <v>1.2477260270131088</v>
+        <f>ROUND((I$4*(1-$H18))^(-I$5),3)</f>
+        <v>1.952</v>
       </c>
       <c r="J18" s="13">
+        <f>ROUND((J$4*(1-$H18))^(-J$5),3)</f>
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="K18" s="12">
+        <f>ROUND((K$4*(1-$H18))^(-K$5),3)</f>
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0315168621845028</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0196918692044572</v>
+      </c>
+      <c r="N18" s="12">
         <f t="shared" si="1"/>
-        <v>2.0315168621844952</v>
-      </c>
-      <c r="K18" s="14">
+        <v>1.3139372339725996</v>
+      </c>
+      <c r="O18" s="12">
         <f t="shared" si="2"/>
-        <v>2.0259999999999998</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" si="1"/>
-        <v>2.0196918692044497</v>
-      </c>
-      <c r="M18" s="14">
-        <f t="shared" si="2"/>
-        <v>2.6139999999999999</v>
-      </c>
-      <c r="N18" s="13">
-        <f t="shared" si="3"/>
-        <v>1.3139372339725985</v>
-      </c>
-      <c r="O18" s="13">
-        <f t="shared" si="4"/>
-        <v>1.6060201567721013</v>
-      </c>
-    </row>
-    <row r="19" spans="6:20" x14ac:dyDescent="0.35">
+        <v>1.6060201567721029</v>
+      </c>
+    </row>
+    <row r="19" spans="6:20" x14ac:dyDescent="0.45">
       <c r="G19" s="10">
         <v>12</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="16">
         <v>0.99</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" si="5"/>
-        <v>2.2999999999999998</v>
+        <f>ROUND((I$4*(1-$H19))^(-I$5),3)</f>
+        <v>3.6560000000000001</v>
       </c>
       <c r="J19" s="13">
+        <f>ROUND((J$4*(1-$H19))^(-J$5),3)</f>
+        <v>7.4420000000000002</v>
+      </c>
+      <c r="K19" s="12">
+        <f>ROUND((K$4*(1-$H19))^(-K$5),3)</f>
+        <v>4.1929999999999996</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>3.8673050762652372</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="0"/>
+        <v>4.0349877352514358</v>
+      </c>
+      <c r="N19" s="12">
         <f t="shared" si="1"/>
-        <v>3.8673050762652372</v>
-      </c>
-      <c r="K19" s="14">
+        <v>1.4475921854535054</v>
+      </c>
+      <c r="O19" s="12">
         <f t="shared" si="2"/>
-        <v>3.95</v>
-      </c>
-      <c r="L19" s="13">
-        <f t="shared" si="1"/>
-        <v>4.0349877352514358</v>
-      </c>
-      <c r="M19" s="14">
-        <f t="shared" si="2"/>
-        <v>7.4420000000000002</v>
-      </c>
-      <c r="N19" s="13">
-        <f t="shared" si="3"/>
-        <v>1.4475921854535054</v>
-      </c>
-      <c r="O19" s="13">
-        <f t="shared" si="4"/>
         <v>1.7697935846398971</v>
       </c>
     </row>
-    <row r="21" spans="6:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:20" x14ac:dyDescent="0.45">
       <c r="G21" s="2">
         <v>0.57999999999999996</v>
       </c>
@@ -1246,7 +2738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="6:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:20" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
         <v>15</v>
       </c>
@@ -1254,119 +2746,119 @@
         <v>16</v>
       </c>
       <c r="H24" s="5">
-        <f>ROUND((K$4*(1-$H7))^(-K$5),3)</f>
-        <v>0.72199999999999998</v>
+        <f>I7</f>
+        <v>0.74099999999999999</v>
       </c>
       <c r="I24" s="5">
-        <f>ROUND((K$4*(1-$H8))^(-K$5),3)</f>
-        <v>0.749</v>
+        <f>I8</f>
+        <v>0.76600000000000001</v>
       </c>
       <c r="J24" s="5">
-        <f>ROUND((K$4*(1-$H9))^(-K$5),3)</f>
-        <v>0.77900000000000003</v>
+        <f>I9</f>
+        <v>0.79500000000000004</v>
       </c>
       <c r="K24" s="5">
-        <f>ROUND((K$4*(1-$H10))^(-K$5),3)</f>
-        <v>0.81399999999999995</v>
+        <f>I10</f>
+        <v>0.82799999999999996</v>
       </c>
       <c r="L24" s="5">
-        <f>ROUND((K$4*(1-$H11))^(-K$5),3)</f>
-        <v>0.85499999999999998</v>
+        <f>I11</f>
+        <v>0.86699999999999999</v>
       </c>
       <c r="M24" s="5">
-        <f>ROUND((K$4*(1-$H12))^(-K$5),3)</f>
-        <v>0.90300000000000002</v>
+        <f>I12</f>
+        <v>0.91400000000000003</v>
       </c>
       <c r="N24" s="5">
-        <f>ROUND((K$4*(1-$H13))^(-K$5),3)</f>
-        <v>0.96299999999999997</v>
+        <f>I13</f>
+        <v>0.97</v>
       </c>
       <c r="O24" s="5">
-        <f>ROUND((K$4*(1-$H14))^(-K$5),3)</f>
-        <v>1.0389999999999999</v>
+        <f>I14</f>
+        <v>1.042</v>
       </c>
       <c r="P24" s="5">
-        <f>ROUND((K$4*(1-$H15))^(-K$5),3)</f>
-        <v>1.1399999999999999</v>
+        <f>I15</f>
+        <v>1.137</v>
       </c>
       <c r="Q24" s="5">
-        <f>ROUND((K$4*(1-$H16))^(-K$5),3)</f>
-        <v>1.284</v>
+        <f>I16</f>
+        <v>1.272</v>
       </c>
       <c r="R24" s="5">
-        <f>ROUND((K$4*(1-$H17))^(-K$5),3)</f>
-        <v>1.5189999999999999</v>
+        <f>I17</f>
+        <v>1.49</v>
       </c>
       <c r="S24" s="5">
-        <f>ROUND((K$4*(1-$H18))^(-K$5),3)</f>
-        <v>2.0259999999999998</v>
+        <f>I18</f>
+        <v>1.952</v>
       </c>
       <c r="T24" s="5">
-        <f>ROUND((K$4*(1-$H19))^(-K$5),3)</f>
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="25" spans="6:20" x14ac:dyDescent="0.35">
+        <f>I19</f>
+        <v>3.6560000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="6:20" x14ac:dyDescent="0.45">
       <c r="H25" t="str">
         <f>"{"&amp;H24</f>
-        <v>{0.722</v>
+        <v>{0.741</v>
       </c>
       <c r="I25" t="str">
         <f>H25&amp;", "&amp;I24</f>
-        <v>{0.722, 0.749</v>
+        <v>{0.741, 0.766</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25:T25" si="6">I25&amp;", "&amp;J24</f>
-        <v>{0.722, 0.749, 0.779</v>
+        <f t="shared" ref="J25:T25" si="4">I25&amp;", "&amp;J24</f>
+        <v>{0.741, 0.766, 0.795</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903, 0.963</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914, 0.97</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903, 0.963, 1.039</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914, 0.97, 1.042</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903, 0.963, 1.039, 1.14</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914, 0.97, 1.042, 1.137</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903, 0.963, 1.039, 1.14, 1.284</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914, 0.97, 1.042, 1.137, 1.272</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903, 0.963, 1.039, 1.14, 1.284, 1.519</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914, 0.97, 1.042, 1.137, 1.272, 1.49</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903, 0.963, 1.039, 1.14, 1.284, 1.519, 2.026</v>
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914, 0.97, 1.042, 1.137, 1.272, 1.49, 1.952</v>
       </c>
       <c r="T25" t="str">
-        <f t="shared" si="6"/>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903, 0.963, 1.039, 1.14, 1.284, 1.519, 2.026, 3.95</v>
-      </c>
-    </row>
-    <row r="27" spans="6:20" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914, 0.97, 1.042, 1.137, 1.272, 1.49, 1.952, 3.656</v>
+      </c>
+    </row>
+    <row r="27" spans="6:20" x14ac:dyDescent="0.45">
       <c r="H27" t="str">
         <f>T25&amp;"};"</f>
-        <v>{0.722, 0.749, 0.779, 0.814, 0.855, 0.903, 0.963, 1.039, 1.14, 1.284, 1.519, 2.026, 3.95};</v>
-      </c>
-    </row>
-    <row r="30" spans="6:20" x14ac:dyDescent="0.35">
+        <v>{0.741, 0.766, 0.795, 0.828, 0.867, 0.914, 0.97, 1.042, 1.137, 1.272, 1.49, 1.952, 3.656};</v>
+      </c>
+    </row>
+    <row r="30" spans="6:20" x14ac:dyDescent="0.45">
       <c r="F30" t="s">
         <v>15</v>
       </c>
@@ -1374,59 +2866,59 @@
         <v>17</v>
       </c>
       <c r="H30" s="5">
-        <f>ROUND((M$4*(1-$H7))^(-M$5),3)</f>
+        <f>J7</f>
         <v>0.52</v>
       </c>
       <c r="I30" s="5">
-        <f>ROUND((M$4*(1-$H8))^(-M$5),3)</f>
+        <f>J8</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="J30" s="5">
-        <f>ROUND((M$4*(1-$H9))^(-M$5),3)</f>
+        <f>J9</f>
         <v>0.58499999999999996</v>
       </c>
       <c r="K30" s="5">
-        <f>ROUND((M$4*(1-$H10))^(-M$5),3)</f>
+        <f>J10</f>
         <v>0.627</v>
       </c>
       <c r="L30" s="5">
-        <f>ROUND((M$4*(1-$H11))^(-M$5),3)</f>
+        <f>J11</f>
         <v>0.67700000000000005</v>
       </c>
       <c r="M30" s="5">
-        <f>ROUND((M$4*(1-$H12))^(-M$5),3)</f>
+        <f>J12</f>
         <v>0.73799999999999999</v>
       </c>
       <c r="N30" s="5">
-        <f>ROUND((M$4*(1-$H13))^(-M$5),3)</f>
+        <f>J13</f>
         <v>0.81599999999999995</v>
       </c>
       <c r="O30" s="5">
-        <f>ROUND((M$4*(1-$H14))^(-M$5),3)</f>
+        <f>J14</f>
         <v>0.91800000000000004</v>
       </c>
       <c r="P30" s="5">
-        <f>ROUND((M$4*(1-$H15))^(-M$5),3)</f>
+        <f>J15</f>
         <v>1.0620000000000001</v>
       </c>
       <c r="Q30" s="5">
-        <f>ROUND((M$4*(1-$H16))^(-M$5),3)</f>
+        <f>J16</f>
         <v>1.28</v>
       </c>
       <c r="R30" s="5">
-        <f>ROUND((M$4*(1-$H17))^(-M$5),3)</f>
+        <f>J17</f>
         <v>1.6659999999999999</v>
       </c>
       <c r="S30" s="5">
-        <f>ROUND((M$4*(1-$H18))^(-M$5),3)</f>
+        <f>J18</f>
         <v>2.6139999999999999</v>
       </c>
       <c r="T30" s="5">
-        <f>ROUND((M$4*(1-$H19))^(-M$5),3)</f>
+        <f>J19</f>
         <v>7.4420000000000002</v>
       </c>
     </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:20" x14ac:dyDescent="0.45">
       <c r="H31" t="str">
         <f>"{"&amp;H30</f>
         <v>{0.52</v>
@@ -1436,51 +2928,51 @@
         <v>{0.52, 0.55</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ref="J31" si="7">I31&amp;", "&amp;J30</f>
+        <f t="shared" ref="J31" si="5">I31&amp;", "&amp;J30</f>
         <v>{0.52, 0.55, 0.585</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" ref="K31" si="8">J31&amp;", "&amp;K30</f>
+        <f t="shared" ref="K31" si="6">J31&amp;", "&amp;K30</f>
         <v>{0.52, 0.55, 0.585, 0.627</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" ref="L31" si="9">K31&amp;", "&amp;L30</f>
+        <f t="shared" ref="L31" si="7">K31&amp;", "&amp;L30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" ref="M31" si="10">L31&amp;", "&amp;M30</f>
+        <f t="shared" ref="M31" si="8">L31&amp;", "&amp;M30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" ref="N31" si="11">M31&amp;", "&amp;N30</f>
+        <f t="shared" ref="N31" si="9">M31&amp;", "&amp;N30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738, 0.816</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" ref="O31" si="12">N31&amp;", "&amp;O30</f>
+        <f t="shared" ref="O31" si="10">N31&amp;", "&amp;O30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738, 0.816, 0.918</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" ref="P31" si="13">O31&amp;", "&amp;P30</f>
+        <f t="shared" ref="P31" si="11">O31&amp;", "&amp;P30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738, 0.816, 0.918, 1.062</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" ref="Q31" si="14">P31&amp;", "&amp;Q30</f>
+        <f t="shared" ref="Q31" si="12">P31&amp;", "&amp;Q30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738, 0.816, 0.918, 1.062, 1.28</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" ref="R31" si="15">Q31&amp;", "&amp;R30</f>
+        <f t="shared" ref="R31" si="13">Q31&amp;", "&amp;R30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738, 0.816, 0.918, 1.062, 1.28, 1.666</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" ref="S31" si="16">R31&amp;", "&amp;S30</f>
+        <f t="shared" ref="S31" si="14">R31&amp;", "&amp;S30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738, 0.816, 0.918, 1.062, 1.28, 1.666, 2.614</v>
       </c>
       <c r="T31" t="str">
-        <f t="shared" ref="T31" si="17">S31&amp;", "&amp;T30</f>
+        <f t="shared" ref="T31" si="15">S31&amp;", "&amp;T30</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738, 0.816, 0.918, 1.062, 1.28, 1.666, 2.614, 7.442</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H33" t="str">
         <f>T31&amp;"};"</f>
         <v>{0.52, 0.55, 0.585, 0.627, 0.677, 0.738, 0.816, 0.918, 1.062, 1.28, 1.666, 2.614, 7.442};</v>
@@ -1488,9 +2980,676 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://github.com/opendata-stuttgart/meta/wiki/Luftfeuchte-Korrektur" xr:uid="{1091E46F-6BBF-4AE8-913A-BDC482BD7CFD}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/opendata-stuttgart/meta/wiki/Luftfeuchte-Korrektur" xr:uid="{0DEF3CA3-DD43-415C-A09A-434F8582311C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0826149A-8222-45FC-B424-9821E09B0F10}">
+  <dimension ref="B2:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="14.65" x14ac:dyDescent="0.5">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <f>(M4+L4)/2</f>
+        <v>3.65</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L4" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="M4" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <f>(M5+L5)/2</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="13">
+        <f>ROUND((I$4*(1-$H7))^(-I$5),3)</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="J7" s="13">
+        <f>ROUND((J$4*(1-$H7))^(-J$5),3)</f>
+        <v>0.52</v>
+      </c>
+      <c r="K7" s="12">
+        <f>K$4*(100-$H7*100)^(-K$5)</f>
+        <v>0.48532242713466539</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" ref="L7:M19" si="0">(L$4*(1-$H7))^(-L$5)</f>
+        <v>0.75187896172307767</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.69380461018973694</v>
+      </c>
+      <c r="N7" s="12">
+        <f>1+(0.488*($H7^8.6))</f>
+        <v>1.0001845592205774</v>
+      </c>
+      <c r="O7" s="12">
+        <f>1+(0.816*($H7^5.8))</f>
+        <v>1.0040145614361757</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <f>H7+0.05</f>
+        <v>0.45</v>
+      </c>
+      <c r="I8" s="13">
+        <f>ROUND((I$4*(1-$H8))^(-I$5),3)</f>
+        <v>0.749</v>
+      </c>
+      <c r="J8" s="13">
+        <f>ROUND((J$4*(1-$H8))^(-J$5),3)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K8" s="12">
+        <f>K$4*((100-($H8*100))^(-K$5))</f>
+        <v>0.50163752219198576</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.77850849765529406</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.72025496793726429</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" ref="N8:N19" si="1">1+(0.488*($H8^8.6))</f>
+        <v>1.0005082149547553</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" ref="O8:O19" si="2">1+(0.816*($H8^5.8))</f>
+        <v>1.0079491874579929</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" ref="H9:H18" si="3">H8+0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="13">
+        <f>ROUND((I$4*(1-$H9))^(-I$5),3)</f>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="J9" s="13">
+        <f>ROUND((J$4*(1-$H9))^(-J$5),3)</f>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" ref="K9:K19" si="4">K$4*((100-($H9*100))^(-K$5))</f>
+        <v>0.52013877962084565</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.80876142993598876</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.75038668133057207</v>
+      </c>
+      <c r="N9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0012576559774553</v>
+      </c>
+      <c r="O9" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0146459040262121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I10" s="13">
+        <f>ROUND((I$4*(1-$H10))^(-I$5),3)</f>
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J10" s="13">
+        <f>ROUND((J$4*(1-$H10))^(-J$5),3)</f>
+        <v>0.627</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="4"/>
+        <v>0.54138607462629684</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.84357446985795326</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.78516483019184224</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0028545585262212</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0254562107507419</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="14">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I11" s="13">
+        <f>ROUND((I$4*(1-$H11))^(-I$5),3)</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="J11" s="13">
+        <f>ROUND((J$4*(1-$H11))^(-J$5),3)</f>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="4"/>
+        <v>0.56616763505108669</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8842690743601439</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.82595506873736657</v>
+      </c>
+      <c r="N11" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0060328228858282</v>
+      </c>
+      <c r="O11" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0421664860934432</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G12" s="10">
+        <v>5</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="3"/>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="I12" s="13">
+        <f>ROUND((I$4*(1-$H12))^(-I$5),3)</f>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="J12" s="13">
+        <f>ROUND((J$4*(1-$H12))^(-J$5),3)</f>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="4"/>
+        <v>0.59563742733469605</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.93278427362504845</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.87476814549524917</v>
+      </c>
+      <c r="N12" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0120081108718995</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="2"/>
+        <v>1.0670791618186926</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G13" s="10">
+        <v>6</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="3"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="I13" s="13">
+        <f>ROUND((I$4*(1-$H13))^(-I$5),3)</f>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J13" s="13">
+        <f>ROUND((J$4*(1-$H13))^(-J$5),3)</f>
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="4"/>
+        <v>0.63157038781500807</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.99211023793731168</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.93471686663182529</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.022712396755064</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1031000298058582</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G14" s="10">
+        <v>7</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="3"/>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="I14" s="13">
+        <f>ROUND((I$4*(1-$H14))^(-I$5),3)</f>
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="J14" s="13">
+        <f>ROUND((J$4*(1-$H14))^(-J$5),3)</f>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="4"/>
+        <v>0.67687836455909456</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0671671047285354</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="0"/>
+        <v>1.010946132721362</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0411099252562523</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1538315749466947</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G15" s="10">
+        <v>8</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="3"/>
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="I15" s="13">
+        <f>ROUND((I$4*(1-$H15))^(-I$5),3)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J15" s="13">
+        <f>ROUND((J$4*(1-$H15))^(-J$5),3)</f>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="4"/>
+        <v>0.73677764068855311</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="0"/>
+        <v>1.166800038870035</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="0"/>
+        <v>1.1127544015853899</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0716133038416651</v>
+      </c>
+      <c r="O15" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2236722380575815</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="G16" s="10">
+        <v>9</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="3"/>
+        <v>0.85000000000000031</v>
+      </c>
+      <c r="I16" s="13">
+        <f>ROUND((I$4*(1-$H16))^(-I$5),3)</f>
+        <v>1.284</v>
+      </c>
+      <c r="J16" s="13">
+        <f>ROUND((J$4*(1-$H16))^(-J$5),3)</f>
+        <v>1.28</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="4"/>
+        <v>0.82188898032136459</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3090973073170618</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2592819475890853</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1206209051539022</v>
+      </c>
+      <c r="O16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.3179215212742093</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G17" s="10">
+        <v>10</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="3"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="I17" s="13">
+        <f>ROUND((I$4*(1-$H17))^(-I$5),3)</f>
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="J17" s="13">
+        <f>ROUND((J$4*(1-$H17))^(-J$5),3)</f>
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="4"/>
+        <v>0.9587995819817724</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5396018815791332</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="0"/>
+        <v>1.4991400926209268</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1971993155253733</v>
+      </c>
+      <c r="O17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4428908556353461</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G18" s="10">
+        <v>11</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="3"/>
+        <v>0.9500000000000004</v>
+      </c>
+      <c r="I18" s="13">
+        <f>ROUND((I$4*(1-$H18))^(-I$5),3)</f>
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="J18" s="13">
+        <f>ROUND((J$4*(1-$H18))^(-J$5),3)</f>
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="4"/>
+        <v>1.2477260270131127</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0315168621845028</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0196918692044572</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3139372339725996</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="2"/>
+        <v>1.6060201567721029</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G19" s="10">
+        <v>12</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="I19" s="13">
+        <f>ROUND((I$4*(1-$H19))^(-I$5),3)</f>
+        <v>3.95</v>
+      </c>
+      <c r="J19" s="13">
+        <f>ROUND((J$4*(1-$H19))^(-J$5),3)</f>
+        <v>7.4420000000000002</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="4"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>3.8673050762652372</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="0"/>
+        <v>4.0349877352514358</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="1"/>
+        <v>1.4475921854535054</v>
+      </c>
+      <c r="O19" s="12">
+        <f t="shared" si="2"/>
+        <v>1.7697935846398971</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.45">
+      <c r="G21" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="3">
+        <f>12*((G21-0.4)/(1-0.4))</f>
+        <v>3.5999999999999992</v>
+      </c>
+      <c r="L21" s="6">
+        <f>ROUNDUP(K21-0.5,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/opendata-stuttgart/meta/wiki/Luftfeuchte-Korrektur" xr:uid="{EA7BDFCD-D007-4FD5-B4BF-E16737822774}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>